--- a/data/3.5.xlsx
+++ b/data/3.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swj_795/Desktop/北梦测/Bei-Projects/3.5Bei-webATFarme/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955FBDE0-C855-4B4C-80C0-31AAA6E44123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC515626-AD44-6341-A32C-3605DC51F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22180" windowHeight="9320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,48 +155,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -208,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -231,95 +195,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,193 +478,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="17" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="10" t="b">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6">
+    <row r="4" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="13">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="K7" s="7"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="L3:L5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1" xr:uid="{0F583B90-C579-FF4E-9D96-B993E6B86B4D}"/>
@@ -785,9 +672,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="23" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -800,7 +692,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
